--- a/Status Reports/MiniGreen - Week 8 - Project Status Report.xlsx
+++ b/Status Reports/MiniGreen - Week 8 - Project Status Report.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aaronhebert/OneDrive - New England Institute of Technology/Senior Project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aaronhebert/OneDrive - New England Institute of Technology/Senior Project/Status Reports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="23" documentId="8_{D49FA435-6125-4C13-9D4B-935A6BCDD7AD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{4D521ABE-93E7-1F43-99B7-51BD25EE1DBC}"/>
+  <xr:revisionPtr revIDLastSave="25" documentId="8_{D49FA435-6125-4C13-9D4B-935A6BCDD7AD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{64594A32-B2F4-A144-A885-78F565D70486}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="440" windowWidth="25520" windowHeight="15560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -853,10 +853,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="B1:D52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21:D21"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection sqref="A1:D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -1169,5 +1172,6 @@
     <mergeCell ref="B9:D9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="75" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>